--- a/src/main/java/com/testData/AMS_TestCase_File.xlsx
+++ b/src/main/java/com/testData/AMS_TestCase_File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projects\Selenabler_Framework\Selenabler2.0\src\main\java\com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3669B95B-82C9-46E8-A6CB-E2B4D2AD4B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B442AD-CA72-4B3E-BBAE-4EDE15E5BC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{B641B8B7-5EE6-4DB7-B527-98A5312C13C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{B641B8B7-5EE6-4DB7-B527-98A5312C13C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_page" sheetId="1" r:id="rId1"/>
@@ -411,18 +411,6 @@
     <t xml:space="preserve">Verify that, "Cancel" is Clickable or not </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Navigate to AMS Application
-2. Login to the Application
-3. Validate "NCS Logo" should be present
-4. Verify "Dashboard, Master, Utility, Audit" Options 
-5. Verify "Admin Guide : A Simple Guide for Admin Use" Label should be present with its pdf.
-6. Verify "User Guide : A Simple User Guide for User Use." Label should be present with its pdf.
-7. Verify "Recent Asset Transfer Request" table
-8. Verify "Asset No, Status, Transfer Date, Employee Name, Remark, Created By, Created Date, Items per page, Navigation button" Table Coloumns should be present 
-9. Verify "Profile Icon" dropdown should be present 
-10. Verify "UserName, Change Password, Logout" should be present </t>
-  </si>
-  <si>
     <t>7. "Profile Icon" dropdown should be present inside Dashboard  frame goin outside the frame and vertical slider is provided</t>
   </si>
   <si>
@@ -3549,6 +3537,18 @@
   </si>
   <si>
     <t>Akash Dhole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to AMS Application
+2. log in to the Application
+3. Validate "NCS Logo" should be present
+4. Verify "Dashboard, Master, Utility, Audit" Options 
+5. Verify "Admin Guide: A Simple Guide for Admin Use" Label should be present with its pdf.
+6. Verify "User Guide: A Simple User Guide for User Use." The label should be present with its pdf.
+7. Verify the "Recent Asset Transfer Request" table
+8. Verify "Asset No, Status, Transfer Date, Employee Name, Remark, Created By, Created Date, Items per page, Navigation button" Table Columns should be present 
+9. Verify "Profile Icon" dropdown should be present 
+10. Verify "UserName, Change Password, Logout" should be present </t>
   </si>
 </sst>
 </file>
@@ -4127,6 +4127,9 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4214,9 +4217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4564,19 +4564,19 @@
   <sheetData>
     <row r="1" spans="1:51" s="59" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F1" s="56" t="s">
         <v>0</v>
@@ -4628,45 +4628,45 @@
       </c>
     </row>
     <row r="2" spans="1:51" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
-        <v>795</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
+      <c r="A2" s="100" t="s">
+        <v>794</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
     </row>
     <row r="3" spans="1:51" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
-        <v>789</v>
+      <c r="A3" s="118" t="s">
+        <v>788</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C3" s="73" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D3" s="73" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F3" s="77" t="s">
         <v>27</v>
@@ -4682,10 +4682,10 @@
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8" t="s">
@@ -4706,9 +4706,9 @@
       <c r="U3" s="81"/>
     </row>
     <row r="4" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="47" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -4753,9 +4753,9 @@
       <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="47" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -4798,18 +4798,18 @@
       <c r="U5" s="85"/>
     </row>
     <row r="6" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="101" t="s">
-        <v>792</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>801</v>
+      <c r="A6" s="119"/>
+      <c r="B6" s="102" t="s">
+        <v>791</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>800</v>
       </c>
       <c r="D6" s="71" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F6" s="74" t="s">
         <v>30</v>
@@ -4849,14 +4849,14 @@
       <c r="U6" s="17"/>
     </row>
     <row r="7" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="102"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="72" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F7" s="74" t="s">
         <v>32</v>
@@ -4896,14 +4896,14 @@
       <c r="U7" s="18"/>
     </row>
     <row r="8" spans="1:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="102"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="83" t="s">
         <v>102</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F8" s="74" t="s">
         <v>33</v>
@@ -4945,14 +4945,14 @@
       <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="103"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="72" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F9" s="76" t="s">
         <v>34</v>
@@ -4992,20 +4992,20 @@
       <c r="U9" s="64"/>
     </row>
     <row r="10" spans="1:51" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
-        <v>793</v>
-      </c>
-      <c r="B10" s="104" t="s">
-        <v>797</v>
-      </c>
-      <c r="C10" s="104" t="s">
-        <v>801</v>
+      <c r="A10" s="122" t="s">
+        <v>792</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>796</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>800</v>
       </c>
       <c r="D10" s="78" t="s">
         <v>103</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F10" s="74" t="s">
         <v>35</v>
@@ -5045,14 +5045,14 @@
       <c r="U10" s="17"/>
     </row>
     <row r="11" spans="1:51" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="105"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="79" t="s">
         <v>103</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F11" s="77" t="s">
         <v>36</v>
@@ -5094,29 +5094,29 @@
       <c r="U11" s="51"/>
     </row>
     <row r="12" spans="1:51" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="114"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="115"/>
       <c r="V12" s="68"/>
       <c r="W12" s="68"/>
       <c r="X12" s="68"/>
@@ -5149,20 +5149,20 @@
       <c r="AY12" s="68"/>
     </row>
     <row r="13" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
-        <v>789</v>
+      <c r="A13" s="107" t="s">
+        <v>788</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D13" s="70" t="s">
         <v>103</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F13" s="74" t="s">
         <v>36</v>
@@ -5202,18 +5202,18 @@
       <c r="U13" s="21"/>
     </row>
     <row r="14" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="101" t="s">
-        <v>796</v>
-      </c>
-      <c r="C14" s="101" t="s">
-        <v>801</v>
+      <c r="A14" s="108"/>
+      <c r="B14" s="102" t="s">
+        <v>795</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>800</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>103</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F14" s="74" t="s">
         <v>57</v>
@@ -5253,14 +5253,14 @@
       <c r="U14" s="21"/>
     </row>
     <row r="15" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="102"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="72" t="s">
         <v>103</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F15" s="74" t="s">
         <v>59</v>
@@ -5300,14 +5300,14 @@
       <c r="U15" s="21"/>
     </row>
     <row r="16" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="103"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="73" t="s">
         <v>103</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F16" s="74" t="s">
         <v>65</v>
@@ -5347,29 +5347,29 @@
       <c r="U16" s="21"/>
     </row>
     <row r="17" spans="1:51" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="116"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="117"/>
       <c r="V17" s="68"/>
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
@@ -5402,20 +5402,20 @@
       <c r="AY17" s="68"/>
     </row>
     <row r="18" spans="1:51" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
-        <v>793</v>
+      <c r="A18" s="107" t="s">
+        <v>792</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D18" s="70" t="s">
         <v>103</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F18" s="74" t="s">
         <v>68</v>
@@ -5431,10 +5431,10 @@
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9" t="s">
@@ -5455,9 +5455,9 @@
       <c r="U18" s="21"/>
     </row>
     <row r="19" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="47" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -5502,9 +5502,9 @@
       <c r="U19" s="48"/>
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="47" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -5547,18 +5547,18 @@
       <c r="U20" s="48"/>
     </row>
     <row r="21" spans="1:51" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="101" t="s">
-        <v>797</v>
-      </c>
-      <c r="C21" s="101" t="s">
-        <v>801</v>
+      <c r="A21" s="108"/>
+      <c r="B21" s="102" t="s">
+        <v>796</v>
+      </c>
+      <c r="C21" s="102" t="s">
+        <v>800</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>103</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F21" s="74" t="s">
         <v>75</v>
@@ -5598,14 +5598,14 @@
       <c r="U21" s="21"/>
     </row>
     <row r="22" spans="1:51" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="102"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="72" t="s">
         <v>103</v>
       </c>
       <c r="E22" s="72" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F22" s="74" t="s">
         <v>81</v>
@@ -5645,14 +5645,14 @@
       <c r="U22" s="21"/>
     </row>
     <row r="23" spans="1:51" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="103"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="73" t="s">
         <v>103</v>
       </c>
       <c r="E23" s="73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F23" s="74" t="s">
         <v>84</v>
@@ -5694,18 +5694,18 @@
       <c r="U23" s="21"/>
     </row>
     <row r="24" spans="1:51" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="70" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C24" s="70" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D24" s="70" t="s">
         <v>103</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F24" s="74" t="s">
         <v>89</v>
@@ -6761,8 +6761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1B57B6-62C3-4A06-9B93-888B6AB5E7F9}">
   <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6792,19 +6792,19 @@
   <sheetData>
     <row r="1" spans="1:51" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>0</v>
@@ -6856,23 +6856,23 @@
       </c>
     </row>
     <row r="2" spans="1:51" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="126"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
       <c r="R2" s="88"/>
@@ -6912,25 +6912,25 @@
     </row>
     <row r="3" spans="1:51" s="4" customFormat="1" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
+        <v>807</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>809</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>810</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>808</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="C3" s="93" t="s">
+      <c r="E3" s="12" t="s">
         <v>811</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>809</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>812</v>
-      </c>
       <c r="F3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>91</v>
@@ -6940,13 +6940,13 @@
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>114</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>101</v>
@@ -6966,23 +6966,23 @@
       <c r="U3" s="17"/>
     </row>
     <row r="4" spans="1:51" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
+      <c r="A4" s="124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="126"/>
       <c r="P4" s="90"/>
       <c r="Q4" s="90"/>
       <c r="R4" s="91"/>
@@ -7022,32 +7022,32 @@
     </row>
     <row r="5" spans="1:51" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="94" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9" t="s">
@@ -7068,23 +7068,23 @@
       <c r="U5" s="21"/>
     </row>
     <row r="6" spans="1:51" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
-        <v>316</v>
-      </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="125"/>
+      <c r="A6" s="124" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="90"/>
       <c r="Q6" s="90"/>
       <c r="R6" s="91"/>
@@ -7124,32 +7124,32 @@
     </row>
     <row r="7" spans="1:51" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9" t="s">
@@ -7170,23 +7170,23 @@
       <c r="U7" s="21"/>
     </row>
     <row r="8" spans="1:51" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
-        <v>317</v>
-      </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="125"/>
+      <c r="A8" s="124" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="126"/>
       <c r="P8" s="90"/>
       <c r="Q8" s="90"/>
       <c r="R8" s="91"/>
@@ -7226,32 +7226,32 @@
     </row>
     <row r="9" spans="1:51" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="86" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9" t="s">
@@ -7319,25 +7319,25 @@
   <sheetData>
     <row r="1" spans="1:53" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1" s="96" t="s">
         <v>0</v>
@@ -7389,31 +7389,31 @@
       </c>
     </row>
     <row r="2" spans="1:53" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="128"/>
+      <c r="A2" s="127" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="129"/>
       <c r="X2" s="68"/>
       <c r="Y2" s="68"/>
       <c r="Z2" s="68"/>
@@ -7446,24 +7446,24 @@
       <c r="BA2" s="68"/>
     </row>
     <row r="3" spans="1:53" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="131"/>
+      <c r="C3" s="99"/>
       <c r="H3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="28" t="s">
         <v>266</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>267</v>
       </c>
       <c r="O3" s="25"/>
       <c r="P3" s="9" t="s">
@@ -7485,23 +7485,23 @@
     </row>
     <row r="4" spans="1:53" s="4" customFormat="1" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="J4" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="9" t="s">
@@ -7523,25 +7523,25 @@
     </row>
     <row r="5" spans="1:53" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="9" t="s">
@@ -7563,23 +7563,23 @@
     </row>
     <row r="6" spans="1:53" ht="75" x14ac:dyDescent="0.25">
       <c r="H6" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="9" t="s">
@@ -7601,23 +7601,23 @@
     </row>
     <row r="7" spans="1:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H7" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="9" t="s">
@@ -7639,23 +7639,23 @@
     </row>
     <row r="8" spans="1:53" ht="105" x14ac:dyDescent="0.25">
       <c r="H8" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>262</v>
-      </c>
       <c r="J8" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>277</v>
       </c>
       <c r="O8" s="21"/>
       <c r="P8" s="9" t="s">
@@ -7677,23 +7677,23 @@
     </row>
     <row r="9" spans="1:53" ht="75" x14ac:dyDescent="0.25">
       <c r="H9" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>264</v>
-      </c>
       <c r="J9" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O9" s="25"/>
       <c r="P9" s="9" t="s">
@@ -7715,23 +7715,23 @@
     </row>
     <row r="10" spans="1:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H10" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>281</v>
-      </c>
       <c r="J10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="O10" s="25"/>
       <c r="P10" s="9" t="s">
@@ -7753,23 +7753,23 @@
     </row>
     <row r="11" spans="1:53" s="4" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H11" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>283</v>
-      </c>
       <c r="J11" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="O11" s="25"/>
       <c r="P11" s="9" t="s">
@@ -7791,23 +7791,23 @@
     </row>
     <row r="12" spans="1:53" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>290</v>
-      </c>
       <c r="J12" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O12" s="25"/>
       <c r="P12" s="9"/>
@@ -7821,23 +7821,23 @@
     </row>
     <row r="13" spans="1:53" ht="75" x14ac:dyDescent="0.25">
       <c r="H13" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>294</v>
-      </c>
       <c r="J13" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O13" s="25"/>
       <c r="P13" s="9" t="s">
@@ -7858,18 +7858,18 @@
       <c r="W13" s="17"/>
     </row>
     <row r="14" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="129" t="s">
-        <v>291</v>
-      </c>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
+      <c r="H14" s="130" t="s">
+        <v>290</v>
+      </c>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="19"/>
@@ -7909,23 +7909,23 @@
     </row>
     <row r="15" spans="1:53" ht="165" x14ac:dyDescent="0.25">
       <c r="H15" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="J15" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="9" t="s">
@@ -7947,23 +7947,23 @@
     </row>
     <row r="16" spans="1:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H16" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>304</v>
-      </c>
       <c r="J16" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>296</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>297</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="9" t="s">
@@ -7985,23 +7985,23 @@
     </row>
     <row r="17" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H17" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>312</v>
-      </c>
       <c r="J17" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="O17" s="25"/>
       <c r="P17" s="9" t="s">
@@ -8023,23 +8023,23 @@
     </row>
     <row r="18" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H18" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>315</v>
-      </c>
       <c r="J18" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N18" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="O18" s="25"/>
       <c r="P18" s="9" t="s">
@@ -8061,23 +8061,23 @@
     </row>
     <row r="19" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H19" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>323</v>
-      </c>
       <c r="K19" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="N19" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="O19" s="25"/>
       <c r="P19" s="9" t="s">
@@ -8099,23 +8099,23 @@
     </row>
     <row r="20" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H20" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>328</v>
-      </c>
       <c r="K20" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="N20" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>330</v>
       </c>
       <c r="O20" s="25"/>
       <c r="P20" s="9" t="s">
@@ -8137,23 +8137,23 @@
     </row>
     <row r="21" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H21" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>327</v>
-      </c>
       <c r="J21" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="N21" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>333</v>
       </c>
       <c r="O21" s="25"/>
       <c r="P21" s="9" t="s">
@@ -8175,23 +8175,23 @@
     </row>
     <row r="22" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H22" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="J22" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>336</v>
-      </c>
       <c r="K22" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="N22" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="O22" s="25"/>
       <c r="P22" s="9" t="s">
@@ -8213,23 +8213,23 @@
     </row>
     <row r="23" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H23" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>341</v>
-      </c>
       <c r="K23" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O23" s="25"/>
       <c r="P23" s="9" t="s">
@@ -8251,23 +8251,23 @@
     </row>
     <row r="24" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H24" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="J24" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>345</v>
-      </c>
       <c r="K24" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O24" s="25"/>
       <c r="P24" s="9" t="s">
@@ -8289,23 +8289,23 @@
     </row>
     <row r="25" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H25" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>351</v>
-      </c>
       <c r="K25" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="N25" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>353</v>
       </c>
       <c r="O25" s="25"/>
       <c r="P25" s="9" t="s">
@@ -8327,23 +8327,23 @@
     </row>
     <row r="26" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H26" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>356</v>
-      </c>
       <c r="K26" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="N26" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="O26" s="25"/>
       <c r="P26" s="9" t="s">
@@ -8365,23 +8365,23 @@
     </row>
     <row r="27" spans="8:53" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="H27" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>366</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>37</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O27" s="12"/>
       <c r="P27" s="9" t="s">
@@ -8403,23 +8403,23 @@
     </row>
     <row r="28" spans="8:53" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="H28" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>37</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="9" t="s">
@@ -8440,18 +8440,18 @@
       <c r="W28" s="21"/>
     </row>
     <row r="29" spans="8:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="129" t="s">
-        <v>368</v>
-      </c>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="130"/>
+      <c r="H29" s="130" t="s">
+        <v>367</v>
+      </c>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="19"/>
@@ -8491,22 +8491,22 @@
     </row>
     <row r="30" spans="8:53" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H30" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J30" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="K30" s="9" t="s">
-        <v>374</v>
-      </c>
       <c r="M30" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="N30" s="28" t="s">
         <v>376</v>
-      </c>
-      <c r="N30" s="28" t="s">
-        <v>377</v>
       </c>
       <c r="O30" s="25"/>
       <c r="P30" s="9" t="s">
@@ -8528,23 +8528,23 @@
     </row>
     <row r="31" spans="8:53" s="4" customFormat="1" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O31" s="25"/>
       <c r="P31" s="9" t="s">
@@ -8566,25 +8566,25 @@
     </row>
     <row r="32" spans="8:53" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H32" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>383</v>
-      </c>
       <c r="J32" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O32" s="25"/>
       <c r="P32" s="9" t="s">
@@ -8606,23 +8606,23 @@
     </row>
     <row r="33" spans="8:53" ht="75" x14ac:dyDescent="0.25">
       <c r="H33" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>386</v>
-      </c>
       <c r="K33" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O33" s="25"/>
       <c r="P33" s="9" t="s">
@@ -8644,23 +8644,23 @@
     </row>
     <row r="34" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H34" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>390</v>
-      </c>
       <c r="J34" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O34" s="21"/>
       <c r="P34" s="9" t="s">
@@ -8682,23 +8682,23 @@
     </row>
     <row r="35" spans="8:53" s="4" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H35" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="I35" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>394</v>
-      </c>
       <c r="K35" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N35" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>396</v>
       </c>
       <c r="O35" s="25"/>
       <c r="P35" s="9" t="s">
@@ -8720,23 +8720,23 @@
     </row>
     <row r="36" spans="8:53" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H36" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>398</v>
-      </c>
       <c r="J36" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O36" s="25"/>
       <c r="P36" s="9" t="s">
@@ -8754,23 +8754,23 @@
     </row>
     <row r="37" spans="8:53" ht="75" x14ac:dyDescent="0.25">
       <c r="H37" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="J37" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>401</v>
-      </c>
       <c r="K37" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="N37" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>404</v>
       </c>
       <c r="O37" s="25"/>
       <c r="P37" s="9" t="s">
@@ -8791,18 +8791,18 @@
       <c r="W37" s="17"/>
     </row>
     <row r="38" spans="8:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="129" t="s">
-        <v>406</v>
-      </c>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="130"/>
-      <c r="Q38" s="130"/>
+      <c r="H38" s="130" t="s">
+        <v>405</v>
+      </c>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="131"/>
+      <c r="O38" s="131"/>
+      <c r="P38" s="131"/>
+      <c r="Q38" s="131"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="19"/>
@@ -8842,23 +8842,23 @@
     </row>
     <row r="39" spans="8:53" ht="210" x14ac:dyDescent="0.25">
       <c r="H39" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="J39" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="K39" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>410</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="N39" s="9" t="s">
         <v>411</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>412</v>
       </c>
       <c r="O39" s="25"/>
       <c r="P39" s="9" t="s">
@@ -8880,25 +8880,25 @@
     </row>
     <row r="40" spans="8:53" s="4" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>415</v>
-      </c>
       <c r="J40" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="L40" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="K40" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>421</v>
-      </c>
       <c r="M40" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O40" s="25"/>
       <c r="P40" s="9" t="s">
@@ -8920,25 +8920,25 @@
     </row>
     <row r="41" spans="8:53" s="4" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>417</v>
-      </c>
       <c r="J41" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O41" s="25"/>
       <c r="P41" s="9" t="s">
@@ -8960,23 +8960,23 @@
     </row>
     <row r="42" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H42" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>419</v>
-      </c>
       <c r="J42" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="9" t="s">
@@ -8998,23 +8998,23 @@
     </row>
     <row r="43" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H43" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="J43" s="9" t="s">
-        <v>429</v>
-      </c>
       <c r="K43" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="9" t="s">
@@ -9036,25 +9036,25 @@
     </row>
     <row r="44" spans="8:53" s="4" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H44" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="J44" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="K44" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="L44" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="L44" s="9" t="s">
+      <c r="M44" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="N44" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="O44" s="25"/>
       <c r="P44" s="9" t="s">
@@ -9076,23 +9076,23 @@
     </row>
     <row r="45" spans="8:53" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="H45" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="I45" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>436</v>
-      </c>
       <c r="J45" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>37</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O45" s="12"/>
       <c r="P45" s="9" t="s">
@@ -9114,23 +9114,23 @@
     </row>
     <row r="46" spans="8:53" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="H46" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>438</v>
-      </c>
       <c r="J46" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>37</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O46" s="12"/>
       <c r="P46" s="9" t="s">
@@ -9151,18 +9151,18 @@
       <c r="W46" s="21"/>
     </row>
     <row r="47" spans="8:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="129" t="s">
-        <v>444</v>
-      </c>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
-      <c r="K47" s="130"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="130"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="130"/>
-      <c r="Q47" s="130"/>
+      <c r="H47" s="130" t="s">
+        <v>443</v>
+      </c>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="131"/>
+      <c r="P47" s="131"/>
+      <c r="Q47" s="131"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="19"/>
@@ -9202,22 +9202,22 @@
     </row>
     <row r="48" spans="8:53" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H48" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I48" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>446</v>
-      </c>
       <c r="J48" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="K48" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="K48" s="9" t="s">
+      <c r="M48" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="M48" s="9" t="s">
+      <c r="N48" s="28" t="s">
         <v>459</v>
-      </c>
-      <c r="N48" s="28" t="s">
-        <v>460</v>
       </c>
       <c r="O48" s="25"/>
       <c r="P48" s="9" t="s">
@@ -9239,23 +9239,23 @@
     </row>
     <row r="49" spans="8:53" s="4" customFormat="1" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H49" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="I49" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>448</v>
-      </c>
       <c r="J49" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="N49" s="9" t="s">
         <v>462</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>463</v>
       </c>
       <c r="O49" s="25"/>
       <c r="P49" s="9" t="s">
@@ -9277,25 +9277,25 @@
     </row>
     <row r="50" spans="8:53" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H50" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="I50" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>450</v>
-      </c>
       <c r="J50" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O50" s="25"/>
       <c r="P50" s="9" t="s">
@@ -9317,23 +9317,23 @@
     </row>
     <row r="51" spans="8:53" ht="75" x14ac:dyDescent="0.25">
       <c r="H51" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="I51" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>452</v>
-      </c>
       <c r="J51" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O51" s="25"/>
       <c r="P51" s="9" t="s">
@@ -9355,23 +9355,23 @@
     </row>
     <row r="52" spans="8:53" ht="90" x14ac:dyDescent="0.25">
       <c r="H52" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>454</v>
-      </c>
       <c r="J52" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L52" s="21"/>
       <c r="M52" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O52" s="21"/>
       <c r="P52" s="9" t="s">
@@ -9393,23 +9393,23 @@
     </row>
     <row r="53" spans="8:53" s="4" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H53" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>456</v>
-      </c>
       <c r="J53" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L53" s="9"/>
       <c r="M53" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="N53" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>469</v>
       </c>
       <c r="O53" s="25"/>
       <c r="P53" s="9" t="s">
@@ -9431,23 +9431,23 @@
     </row>
     <row r="54" spans="8:53" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H54" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="I54" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>471</v>
-      </c>
       <c r="J54" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O54" s="25"/>
       <c r="P54" s="9" t="s">
@@ -9468,18 +9468,18 @@
       <c r="W54" s="17"/>
     </row>
     <row r="55" spans="8:53" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="129" t="s">
-        <v>473</v>
-      </c>
-      <c r="I55" s="130"/>
-      <c r="J55" s="130"/>
-      <c r="K55" s="130"/>
-      <c r="L55" s="130"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="130"/>
-      <c r="Q55" s="130"/>
+      <c r="H55" s="130" t="s">
+        <v>472</v>
+      </c>
+      <c r="I55" s="131"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="131"/>
+      <c r="L55" s="131"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="O55" s="131"/>
+      <c r="P55" s="131"/>
+      <c r="Q55" s="131"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="19"/>
@@ -9519,22 +9519,22 @@
     </row>
     <row r="56" spans="8:53" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H56" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="I56" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>475</v>
-      </c>
       <c r="J56" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="K56" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>481</v>
-      </c>
       <c r="M56" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O56" s="25"/>
       <c r="P56" s="9" t="s">
@@ -9556,23 +9556,23 @@
     </row>
     <row r="57" spans="8:53" s="4" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H57" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="I57" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>477</v>
-      </c>
       <c r="J57" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="N57" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="O57" s="25"/>
       <c r="P57" s="9" t="s">
@@ -9594,25 +9594,25 @@
     </row>
     <row r="58" spans="8:53" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H58" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="I58" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>479</v>
-      </c>
       <c r="J58" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O58" s="25"/>
       <c r="P58" s="9" t="s">
@@ -9634,23 +9634,23 @@
     </row>
     <row r="59" spans="8:53" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H59" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="I59" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="J59" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="J59" s="9" t="s">
-        <v>488</v>
-      </c>
       <c r="K59" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L59" s="21"/>
       <c r="M59" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="N59" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>491</v>
       </c>
       <c r="O59" s="21"/>
       <c r="P59" s="9" t="s">
@@ -9672,23 +9672,23 @@
     </row>
     <row r="60" spans="8:53" s="4" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H60" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="J60" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>494</v>
-      </c>
       <c r="K60" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O60" s="25"/>
       <c r="P60" s="9" t="s">
@@ -9710,25 +9710,25 @@
     </row>
     <row r="61" spans="8:53" s="4" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H61" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="I61" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="J61" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="K61" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M61" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="K61" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="M61" s="9" t="s">
+      <c r="N61" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="N61" s="9" t="s">
-        <v>501</v>
       </c>
       <c r="O61" s="25"/>
       <c r="P61" s="9" t="s">
@@ -9750,23 +9750,23 @@
     </row>
     <row r="62" spans="8:53" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="H62" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="I62" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="I62" s="9" t="s">
-        <v>503</v>
-      </c>
       <c r="J62" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>37</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O62" s="12"/>
       <c r="P62" s="9" t="s">
@@ -9788,23 +9788,23 @@
     </row>
     <row r="63" spans="8:53" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="H63" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="I63" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>505</v>
-      </c>
       <c r="J63" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K63" s="9" t="s">
         <v>37</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="N63" s="9" t="s">
         <v>507</v>
-      </c>
-      <c r="N63" s="9" t="s">
-        <v>508</v>
       </c>
       <c r="O63" s="12"/>
       <c r="P63" s="9" t="s">
@@ -9843,7 +9843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC87FA0-6A8E-4470-B7BE-6A1C1093E783}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9915,813 +9915,813 @@
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>615</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>617</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>536</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>513</v>
-      </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="34" t="s">
         <v>618</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>620</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>621</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N2" s="35"/>
       <c r="O2" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="29" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>635</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="H3" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>671</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>637</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="M3" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P3" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="29" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>639</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>638</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>639</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>640</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="M4" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="O4" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P4" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="29" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C5" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E5" s="28" t="s">
+      <c r="H5" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>641</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="M5" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J5" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P5" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="29" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E6" s="28" t="s">
+      <c r="H6" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>642</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="I6" s="29" t="s">
+      <c r="M6" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O6" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J6" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P6" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="29" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="H7" s="28" t="s">
+        <v>644</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="29" t="s">
         <v>513</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>646</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>644</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>645</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="29" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="I8" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>646</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>681</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>682</v>
-      </c>
-      <c r="I8" s="29" t="s">
+      <c r="M8" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P8" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="29" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="G9" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>648</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>654</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>655</v>
-      </c>
-      <c r="I9" s="29" t="s">
+      <c r="M9" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P9" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>650</v>
-      </c>
       <c r="F10" s="28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G10" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>657</v>
-      </c>
       <c r="I10" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>666</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>651</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>653</v>
-      </c>
-      <c r="G11" s="28" t="s">
+      <c r="H11" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>668</v>
-      </c>
       <c r="I11" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="29" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>671</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="H14" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>672</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="I14" s="29" t="s">
+      <c r="M14" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P14" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="29" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="F15" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>674</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>673</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>674</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>675</v>
-      </c>
-      <c r="I15" s="29" t="s">
+      <c r="M15" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O15" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P15" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="29" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>676</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>677</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="G16" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" s="29" t="s">
         <v>513</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>678</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>679</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>680</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O16" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="P16" s="29" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="29" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C17" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>683</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E17" s="28" t="s">
+      <c r="I17" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>678</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>683</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>684</v>
-      </c>
-      <c r="I17" s="29" t="s">
+      <c r="M17" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P17" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="29" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D18" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="F18" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>685</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>654</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>655</v>
-      </c>
-      <c r="I18" s="29" t="s">
+      <c r="M18" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O18" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P18" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>650</v>
-      </c>
       <c r="F19" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G19" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>657</v>
-      </c>
       <c r="I19" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C20" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="G20" s="28" t="s">
         <v>666</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>651</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="G20" s="28" t="s">
+      <c r="H20" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="H20" s="28" t="s">
-        <v>668</v>
-      </c>
       <c r="I20" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="29" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C23" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="G23" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E23" s="28" t="s">
+      <c r="H23" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F23" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="I23" s="29" t="s">
+      <c r="M23" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O23" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M23" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O23" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P23" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="29" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D24" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="F24" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>674</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>674</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>675</v>
-      </c>
-      <c r="I24" s="29" t="s">
+      <c r="M24" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O24" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O24" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P24" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -10816,764 +10816,764 @@
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>511</v>
-      </c>
       <c r="C2" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>535</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="H2" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>513</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>537</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>514</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N2" s="35"/>
       <c r="O2" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="315" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="H3" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="M3" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P3" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="H4" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="M4" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="O4" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P4" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C5" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E5" s="28" t="s">
+      <c r="H5" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>564</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="M5" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J5" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P5" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E6" s="28" t="s">
+      <c r="H6" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="I6" s="29" t="s">
+      <c r="M6" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O6" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J6" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P6" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="H7" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="29" t="s">
         <v>513</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="I8" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="I8" s="29" t="s">
+      <c r="M8" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P8" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D9" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="F9" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="I9" s="29" t="s">
+      <c r="M9" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P9" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D10" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="F10" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="I10" s="29" t="s">
+      <c r="M10" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P10" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="H11" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="I11" s="29" t="s">
+      <c r="M11" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P11" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E12" s="28" t="s">
+      <c r="G12" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="I12" s="29" t="s">
+      <c r="M12" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O12" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P12" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E13" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="G13" s="28" t="s">
+      <c r="H13" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="H13" s="28" t="s">
-        <v>581</v>
-      </c>
       <c r="I13" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>150</v>
-      </c>
       <c r="P13" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="F14" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="G14" s="28" t="s">
+      <c r="H14" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>585</v>
-      </c>
       <c r="I14" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C17" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="G17" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="H17" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="H17" s="28" t="s">
-        <v>597</v>
-      </c>
       <c r="I17" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G18" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>599</v>
-      </c>
       <c r="I18" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G19" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>602</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>603</v>
-      </c>
       <c r="I19" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C20" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>604</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E20" s="28" t="s">
+      <c r="F20" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="G20" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="H20" s="28" t="s">
         <v>607</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C21" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>606</v>
-      </c>
-      <c r="G21" s="28" t="s">
+      <c r="H21" s="28" t="s">
         <v>610</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E22" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>606</v>
-      </c>
       <c r="G22" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>614</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -11698,34 +11698,34 @@
         <v>27</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="M2" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11733,34 +11733,34 @@
         <v>28</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>154</v>
-      </c>
       <c r="I3" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="105" x14ac:dyDescent="0.25">
@@ -11768,34 +11768,34 @@
         <v>29</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="H4" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>159</v>
-      </c>
       <c r="I4" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O4" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="105" x14ac:dyDescent="0.25">
@@ -11803,34 +11803,34 @@
         <v>30</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="28" t="s">
+      <c r="G5" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="H5" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>164</v>
-      </c>
       <c r="I5" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="105" x14ac:dyDescent="0.25">
@@ -11838,34 +11838,34 @@
         <v>32</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="D6" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="H6" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>169</v>
-      </c>
       <c r="I6" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O6" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="105" x14ac:dyDescent="0.25">
@@ -11873,34 +11873,34 @@
         <v>33</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="G7" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="H7" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="I7" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="105" x14ac:dyDescent="0.25">
@@ -11908,34 +11908,34 @@
         <v>34</v>
       </c>
       <c r="B8" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="H8" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>179</v>
-      </c>
       <c r="I8" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="105" x14ac:dyDescent="0.25">
@@ -11943,34 +11943,34 @@
         <v>35</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="D9" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="28" t="s">
+      <c r="G9" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="H9" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>184</v>
-      </c>
       <c r="I9" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="105" x14ac:dyDescent="0.25">
@@ -11978,34 +11978,34 @@
         <v>36</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="D10" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="28" t="s">
+      <c r="G10" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="H10" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>189</v>
-      </c>
       <c r="I10" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="105" x14ac:dyDescent="0.25">
@@ -12013,39 +12013,39 @@
         <v>57</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="D11" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="28" t="s">
+      <c r="G11" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="H11" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>194</v>
-      </c>
       <c r="I11" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
@@ -12068,32 +12068,32 @@
         <v>59</v>
       </c>
       <c r="B13" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="D13" s="28" t="s">
         <v>197</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>198</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="H13" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="H13" s="28" t="s">
-        <v>201</v>
-      </c>
       <c r="I13" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="120" x14ac:dyDescent="0.25">
@@ -12101,34 +12101,34 @@
         <v>65</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="D14" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="28" t="s">
+      <c r="G14" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="H14" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>206</v>
-      </c>
       <c r="I14" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="120" x14ac:dyDescent="0.25">
@@ -12136,34 +12136,34 @@
         <v>68</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="D15" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="28" t="s">
+      <c r="G15" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="H15" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="H15" s="28" t="s">
-        <v>211</v>
-      </c>
       <c r="I15" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O15" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="120" x14ac:dyDescent="0.25">
@@ -12171,34 +12171,34 @@
         <v>71</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D16" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="G16" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="H16" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="H16" s="28" t="s">
-        <v>216</v>
-      </c>
       <c r="I16" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O16" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="120" x14ac:dyDescent="0.25">
@@ -12206,34 +12206,34 @@
         <v>73</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="D17" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="E17" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="G17" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="H17" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="H17" s="28" t="s">
-        <v>222</v>
-      </c>
       <c r="I17" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="300" x14ac:dyDescent="0.25">
@@ -12241,34 +12241,34 @@
         <v>75</v>
       </c>
       <c r="B18" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="D18" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="G18" s="28" t="s">
+      <c r="H18" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>226</v>
-      </c>
       <c r="I18" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O18" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12276,34 +12276,34 @@
         <v>81</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="D19" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19" s="28" t="s">
+      <c r="H19" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>230</v>
-      </c>
       <c r="I19" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O19" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12311,34 +12311,34 @@
         <v>84</v>
       </c>
       <c r="B20" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="D20" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="28" t="s">
+      <c r="H20" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="H20" s="28" t="s">
-        <v>234</v>
-      </c>
       <c r="I20" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12346,151 +12346,151 @@
         <v>89</v>
       </c>
       <c r="B21" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="D21" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="28" t="s">
+      <c r="H21" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>238</v>
-      </c>
       <c r="I21" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O21" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D22" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>220</v>
-      </c>
       <c r="G22" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="H22" s="28" t="s">
-        <v>307</v>
-      </c>
       <c r="I22" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O22" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O22" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="D23" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="28" t="s">
+      <c r="H23" s="28" t="s">
         <v>242</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>248</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>250</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="29" t="s">
         <v>252</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -12555,29 +12555,29 @@
     </row>
     <row r="2" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="39" t="s">
+        <v>695</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>698</v>
-      </c>
       <c r="F2" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G2" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>704</v>
       </c>
-      <c r="H2" s="38" t="s">
-        <v>705</v>
-      </c>
       <c r="I2" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" s="38"/>
       <c r="K2" s="38"/>
@@ -12588,10 +12588,10 @@
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
       <c r="E3" s="40" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
@@ -12606,7 +12606,7 @@
       <c r="D4" s="41"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -12621,7 +12621,7 @@
       <c r="D5" s="41"/>
       <c r="E5" s="40"/>
       <c r="F5" s="40" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -12631,29 +12631,29 @@
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42" t="s">
+        <v>705</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>706</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>707</v>
-      </c>
       <c r="E6" s="41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G6" s="42" t="s">
+        <v>731</v>
+      </c>
+      <c r="H6" s="42" t="s">
         <v>732</v>
       </c>
-      <c r="H6" s="42" t="s">
-        <v>733</v>
-      </c>
       <c r="I6" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
@@ -12664,10 +12664,10 @@
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
       <c r="E7" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -12681,10 +12681,10 @@
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
       <c r="E8" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
@@ -12698,10 +12698,10 @@
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
@@ -12715,10 +12715,10 @@
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
       <c r="E10" s="41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
@@ -12732,10 +12732,10 @@
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="41" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -12749,10 +12749,10 @@
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
       <c r="E12" s="41" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
@@ -12766,10 +12766,10 @@
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="41" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -12783,10 +12783,10 @@
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
       <c r="E14" s="41" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
@@ -12800,10 +12800,10 @@
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="41" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
@@ -12817,10 +12817,10 @@
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
@@ -12834,10 +12834,10 @@
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
       <c r="E17" s="41" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
@@ -12852,7 +12852,7 @@
       <c r="D18" s="42"/>
       <c r="E18" s="41"/>
       <c r="F18" s="41" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
@@ -12867,7 +12867,7 @@
       <c r="D19" s="42"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
@@ -12882,7 +12882,7 @@
       <c r="D20" s="42"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
@@ -12897,7 +12897,7 @@
       <c r="D21" s="42"/>
       <c r="E21" s="41"/>
       <c r="F21" s="41" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
@@ -12912,7 +12912,7 @@
       <c r="D22" s="42"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
@@ -12927,7 +12927,7 @@
       <c r="D23" s="42"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
@@ -12939,25 +12939,25 @@
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G24" s="42" t="s">
+        <v>735</v>
+      </c>
+      <c r="H24" s="42" t="s">
         <v>736</v>
       </c>
-      <c r="H24" s="42" t="s">
-        <v>737</v>
-      </c>
       <c r="I24" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
@@ -12968,10 +12968,10 @@
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
       <c r="E25" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
@@ -12986,7 +12986,7 @@
       <c r="D26" s="42"/>
       <c r="E26" s="41"/>
       <c r="F26" s="41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
@@ -13001,7 +13001,7 @@
       <c r="D27" s="42"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
@@ -13016,7 +13016,7 @@
       <c r="D28" s="42"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
@@ -13031,7 +13031,7 @@
       <c r="D29" s="42"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
@@ -13046,7 +13046,7 @@
       <c r="D30" s="42"/>
       <c r="E30" s="41"/>
       <c r="F30" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
@@ -13061,7 +13061,7 @@
       <c r="D31" s="42"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
@@ -13073,25 +13073,25 @@
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G32" s="42" t="s">
+        <v>740</v>
+      </c>
+      <c r="H32" s="42" t="s">
         <v>741</v>
       </c>
-      <c r="H32" s="42" t="s">
-        <v>742</v>
-      </c>
       <c r="I32" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
@@ -13102,10 +13102,10 @@
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
       <c r="E33" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G33" s="42"/>
       <c r="H33" s="42"/>
@@ -13119,10 +13119,10 @@
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
       <c r="E34" s="41" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
@@ -13137,7 +13137,7 @@
       <c r="D35" s="42"/>
       <c r="E35" s="41"/>
       <c r="F35" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
@@ -13152,7 +13152,7 @@
       <c r="D36" s="42"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
@@ -13167,7 +13167,7 @@
       <c r="D37" s="42"/>
       <c r="E37" s="41"/>
       <c r="F37" s="41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
@@ -13182,7 +13182,7 @@
       <c r="D38" s="42"/>
       <c r="E38" s="41"/>
       <c r="F38" s="41" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
@@ -13194,16 +13194,16 @@
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="E39" s="41" t="s">
         <v>743</v>
       </c>
-      <c r="D39" s="42" t="s">
-        <v>707</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>744</v>
-      </c>
       <c r="F39" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
@@ -13217,10 +13217,10 @@
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
@@ -13234,10 +13234,10 @@
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
       <c r="E41" s="41" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
@@ -13252,7 +13252,7 @@
       <c r="D42" s="42"/>
       <c r="E42" s="41"/>
       <c r="F42" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G42" s="42"/>
       <c r="H42" s="42"/>
@@ -13267,7 +13267,7 @@
       <c r="D43" s="42"/>
       <c r="E43" s="41"/>
       <c r="F43" s="41" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G43" s="42"/>
       <c r="H43" s="42"/>
@@ -13282,7 +13282,7 @@
       <c r="D44" s="42"/>
       <c r="E44" s="41"/>
       <c r="F44" s="41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
@@ -13297,7 +13297,7 @@
       <c r="D45" s="42"/>
       <c r="E45" s="41"/>
       <c r="F45" s="41" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
@@ -13312,7 +13312,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="41"/>
       <c r="F46" s="41" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
@@ -13324,25 +13324,25 @@
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G47" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="H47" s="42" t="s">
         <v>750</v>
       </c>
-      <c r="H47" s="42" t="s">
-        <v>751</v>
-      </c>
       <c r="I47" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J47" s="42"/>
       <c r="K47" s="42"/>
@@ -13353,10 +13353,10 @@
       <c r="C48" s="42"/>
       <c r="D48" s="42"/>
       <c r="E48" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
@@ -13370,10 +13370,10 @@
       <c r="C49" s="42"/>
       <c r="D49" s="42"/>
       <c r="E49" s="41" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
@@ -13388,7 +13388,7 @@
       <c r="D50" s="42"/>
       <c r="E50" s="41"/>
       <c r="F50" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G50" s="42"/>
       <c r="H50" s="42"/>
@@ -13403,7 +13403,7 @@
       <c r="D51" s="42"/>
       <c r="E51" s="41"/>
       <c r="F51" s="42" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
@@ -13418,7 +13418,7 @@
       <c r="D52" s="42"/>
       <c r="E52" s="41"/>
       <c r="F52" s="42" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -13433,7 +13433,7 @@
       <c r="D53" s="42"/>
       <c r="E53" s="41"/>
       <c r="F53" s="42" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G53" s="42"/>
       <c r="H53" s="42"/>
@@ -13448,7 +13448,7 @@
       <c r="D54" s="42"/>
       <c r="E54" s="41"/>
       <c r="F54" s="42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
@@ -13458,7 +13458,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -13488,25 +13488,25 @@
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42" t="s">
+        <v>752</v>
+      </c>
+      <c r="D57" s="42" t="s">
         <v>753</v>
       </c>
-      <c r="D57" s="42" t="s">
-        <v>754</v>
-      </c>
       <c r="E57" s="42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G57" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="H57" s="42" t="s">
         <v>768</v>
       </c>
-      <c r="H57" s="42" t="s">
-        <v>769</v>
-      </c>
       <c r="I57" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J57" s="42"/>
       <c r="K57" s="42"/>
@@ -13517,10 +13517,10 @@
       <c r="C58" s="42"/>
       <c r="D58" s="42"/>
       <c r="E58" s="42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
@@ -13534,10 +13534,10 @@
       <c r="C59" s="42"/>
       <c r="D59" s="42"/>
       <c r="E59" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
@@ -13551,10 +13551,10 @@
       <c r="C60" s="42"/>
       <c r="D60" s="42"/>
       <c r="E60" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F60" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G60" s="42"/>
       <c r="H60" s="42"/>
@@ -13568,10 +13568,10 @@
       <c r="C61" s="42"/>
       <c r="D61" s="42"/>
       <c r="E61" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G61" s="42"/>
       <c r="H61" s="42"/>
@@ -13585,10 +13585,10 @@
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
       <c r="E62" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
@@ -13602,10 +13602,10 @@
       <c r="C63" s="42"/>
       <c r="D63" s="42"/>
       <c r="E63" s="42" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G63" s="42"/>
       <c r="H63" s="42"/>
@@ -13620,7 +13620,7 @@
       <c r="D64" s="42"/>
       <c r="E64" s="42"/>
       <c r="F64" s="42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G64" s="42"/>
       <c r="H64" s="42"/>
@@ -13635,7 +13635,7 @@
       <c r="D65" s="42"/>
       <c r="E65" s="42"/>
       <c r="F65" s="42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G65" s="42"/>
       <c r="H65" s="42"/>
@@ -13650,7 +13650,7 @@
       <c r="D66" s="42"/>
       <c r="E66" s="42"/>
       <c r="F66" s="42" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G66" s="42"/>
       <c r="H66" s="42"/>
@@ -13665,7 +13665,7 @@
       <c r="D67" s="42"/>
       <c r="E67" s="42"/>
       <c r="F67" s="42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G67" s="42"/>
       <c r="H67" s="42"/>
@@ -13680,7 +13680,7 @@
       <c r="D68" s="42"/>
       <c r="E68" s="42"/>
       <c r="F68" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
@@ -13695,7 +13695,7 @@
       <c r="D69" s="42"/>
       <c r="E69" s="42"/>
       <c r="F69" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G69" s="42"/>
       <c r="H69" s="42"/>
@@ -13707,25 +13707,25 @@
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F70" s="42" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G70" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="H70" s="42" t="s">
         <v>772</v>
       </c>
-      <c r="H70" s="42" t="s">
-        <v>773</v>
-      </c>
       <c r="I70" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J70" s="42"/>
       <c r="K70" s="42"/>
@@ -13736,10 +13736,10 @@
       <c r="C71" s="42"/>
       <c r="D71" s="42"/>
       <c r="E71" s="42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F71" s="42" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G71" s="42"/>
       <c r="H71" s="42"/>
@@ -13753,10 +13753,10 @@
       <c r="C72" s="42"/>
       <c r="D72" s="42"/>
       <c r="E72" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F72" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G72" s="42"/>
       <c r="H72" s="42"/>
@@ -13770,10 +13770,10 @@
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
       <c r="E73" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G73" s="42"/>
       <c r="H73" s="42"/>
@@ -13787,10 +13787,10 @@
       <c r="C74" s="42"/>
       <c r="D74" s="42"/>
       <c r="E74" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G74" s="42"/>
       <c r="H74" s="42"/>
@@ -13804,10 +13804,10 @@
       <c r="C75" s="42"/>
       <c r="D75" s="42"/>
       <c r="E75" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F75" s="42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G75" s="42"/>
       <c r="H75" s="42"/>
@@ -13821,10 +13821,10 @@
       <c r="C76" s="42"/>
       <c r="D76" s="42"/>
       <c r="E76" s="42" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F76" s="42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G76" s="42"/>
       <c r="H76" s="42"/>
@@ -13839,7 +13839,7 @@
       <c r="D77" s="42"/>
       <c r="E77" s="42"/>
       <c r="F77" s="42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G77" s="42"/>
       <c r="H77" s="42"/>
@@ -13854,7 +13854,7 @@
       <c r="D78" s="42"/>
       <c r="E78" s="42"/>
       <c r="F78" s="42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G78" s="42"/>
       <c r="H78" s="42"/>
@@ -13869,7 +13869,7 @@
       <c r="D79" s="42"/>
       <c r="E79" s="42"/>
       <c r="F79" s="42" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G79" s="42"/>
       <c r="H79" s="42"/>
@@ -13884,7 +13884,7 @@
       <c r="D80" s="42"/>
       <c r="E80" s="42"/>
       <c r="F80" s="42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G80" s="42"/>
       <c r="H80" s="42"/>
@@ -13899,7 +13899,7 @@
       <c r="D81" s="42"/>
       <c r="E81" s="42"/>
       <c r="F81" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G81" s="42"/>
       <c r="H81" s="42"/>
@@ -13914,7 +13914,7 @@
       <c r="D82" s="42"/>
       <c r="E82" s="42"/>
       <c r="F82" s="42" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G82" s="42"/>
       <c r="H82" s="42"/>
@@ -13926,25 +13926,25 @@
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G83" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="H83" s="42" t="s">
         <v>777</v>
       </c>
-      <c r="H83" s="42" t="s">
-        <v>778</v>
-      </c>
       <c r="I83" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J83" s="42"/>
       <c r="K83" s="42"/>
@@ -13955,10 +13955,10 @@
       <c r="C84" s="42"/>
       <c r="D84" s="42"/>
       <c r="E84" s="42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G84" s="42"/>
       <c r="H84" s="42"/>
@@ -13972,10 +13972,10 @@
       <c r="C85" s="42"/>
       <c r="D85" s="42"/>
       <c r="E85" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F85" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G85" s="42"/>
       <c r="H85" s="42"/>
@@ -13989,10 +13989,10 @@
       <c r="C86" s="42"/>
       <c r="D86" s="42"/>
       <c r="E86" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G86" s="42"/>
       <c r="H86" s="42"/>
@@ -14006,10 +14006,10 @@
       <c r="C87" s="42"/>
       <c r="D87" s="42"/>
       <c r="E87" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F87" s="42" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G87" s="42"/>
       <c r="H87" s="42"/>
@@ -14023,10 +14023,10 @@
       <c r="C88" s="42"/>
       <c r="D88" s="42"/>
       <c r="E88" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F88" s="42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G88" s="42"/>
       <c r="H88" s="42"/>
@@ -14040,10 +14040,10 @@
       <c r="C89" s="42"/>
       <c r="D89" s="42"/>
       <c r="E89" s="42" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G89" s="42"/>
       <c r="H89" s="42"/>
@@ -14057,10 +14057,10 @@
       <c r="C90" s="42"/>
       <c r="D90" s="42"/>
       <c r="E90" s="42" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F90" s="42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G90" s="42"/>
       <c r="H90" s="42"/>
@@ -14075,7 +14075,7 @@
       <c r="D91" s="42"/>
       <c r="E91" s="42"/>
       <c r="F91" s="42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G91" s="42"/>
       <c r="H91" s="42"/>
@@ -14090,7 +14090,7 @@
       <c r="D92" s="42"/>
       <c r="E92" s="42"/>
       <c r="F92" s="42" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G92" s="42"/>
       <c r="H92" s="42"/>
@@ -14105,7 +14105,7 @@
       <c r="D93" s="42"/>
       <c r="E93" s="42"/>
       <c r="F93" s="42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G93" s="42"/>
       <c r="H93" s="42"/>
@@ -14120,7 +14120,7 @@
       <c r="D94" s="42"/>
       <c r="E94" s="42"/>
       <c r="F94" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G94" s="42"/>
       <c r="H94" s="42"/>
@@ -14135,7 +14135,7 @@
       <c r="D95" s="42"/>
       <c r="E95" s="42"/>
       <c r="F95" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G95" s="42"/>
       <c r="H95" s="42"/>
@@ -14150,7 +14150,7 @@
       <c r="D96" s="42"/>
       <c r="E96" s="42"/>
       <c r="F96" s="42" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G96" s="42"/>
       <c r="H96" s="42"/>
@@ -14162,25 +14162,25 @@
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F97" s="42" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G97" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="H97" s="42" t="s">
         <v>781</v>
       </c>
-      <c r="H97" s="42" t="s">
-        <v>782</v>
-      </c>
       <c r="I97" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J97" s="42"/>
       <c r="K97" s="42"/>
@@ -14191,10 +14191,10 @@
       <c r="C98" s="42"/>
       <c r="D98" s="42"/>
       <c r="E98" s="42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F98" s="42" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G98" s="42"/>
       <c r="H98" s="42"/>
@@ -14208,10 +14208,10 @@
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
       <c r="E99" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F99" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G99" s="42"/>
       <c r="H99" s="42"/>
@@ -14225,10 +14225,10 @@
       <c r="C100" s="42"/>
       <c r="D100" s="42"/>
       <c r="E100" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F100" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G100" s="42"/>
       <c r="H100" s="42"/>
@@ -14242,10 +14242,10 @@
       <c r="C101" s="42"/>
       <c r="D101" s="42"/>
       <c r="E101" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F101" s="42" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G101" s="42"/>
       <c r="H101" s="42"/>
@@ -14259,10 +14259,10 @@
       <c r="C102" s="42"/>
       <c r="D102" s="42"/>
       <c r="E102" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F102" s="42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G102" s="42"/>
       <c r="H102" s="42"/>
@@ -14276,10 +14276,10 @@
       <c r="C103" s="42"/>
       <c r="D103" s="42"/>
       <c r="E103" s="42" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G103" s="42"/>
       <c r="H103" s="42"/>
@@ -14294,7 +14294,7 @@
       <c r="D104" s="42"/>
       <c r="E104" s="42"/>
       <c r="F104" s="42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G104" s="42"/>
       <c r="H104" s="42"/>
@@ -14309,7 +14309,7 @@
       <c r="D105" s="42"/>
       <c r="E105" s="42"/>
       <c r="F105" s="42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G105" s="42"/>
       <c r="H105" s="42"/>
@@ -14324,7 +14324,7 @@
       <c r="D106" s="42"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G106" s="42"/>
       <c r="H106" s="42"/>
@@ -14339,7 +14339,7 @@
       <c r="D107" s="42"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G107" s="42"/>
       <c r="H107" s="42"/>
@@ -14354,7 +14354,7 @@
       <c r="D108" s="42"/>
       <c r="E108" s="42"/>
       <c r="F108" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G108" s="42"/>
       <c r="H108" s="42"/>
@@ -14369,7 +14369,7 @@
       <c r="D109" s="42"/>
       <c r="E109" s="42"/>
       <c r="F109" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G109" s="42"/>
       <c r="H109" s="42"/>
@@ -14384,7 +14384,7 @@
       <c r="D110" s="42"/>
       <c r="E110" s="42"/>
       <c r="F110" s="42" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G110" s="42"/>
       <c r="H110" s="42"/>
@@ -14399,7 +14399,7 @@
       <c r="D111" s="42"/>
       <c r="E111" s="42"/>
       <c r="F111" s="42" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G111" s="42"/>
       <c r="H111" s="42"/>
@@ -14422,7 +14422,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -14452,13 +14452,13 @@
       <c r="A115" s="42"/>
       <c r="B115" s="42"/>
       <c r="C115" s="42" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F115" s="42"/>
       <c r="G115" s="42"/>
@@ -14473,7 +14473,7 @@
       <c r="C116" s="42"/>
       <c r="D116" s="42"/>
       <c r="E116" s="42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F116" s="42"/>
       <c r="G116" s="42"/>
@@ -14488,7 +14488,7 @@
       <c r="C117" s="42"/>
       <c r="D117" s="42"/>
       <c r="E117" s="42" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F117" s="42"/>
       <c r="G117" s="42"/>
@@ -14503,7 +14503,7 @@
       <c r="C118" s="42"/>
       <c r="D118" s="42"/>
       <c r="E118" s="42" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F118" s="42"/>
       <c r="G118" s="42"/>
@@ -14518,7 +14518,7 @@
       <c r="C119" s="42"/>
       <c r="D119" s="42"/>
       <c r="E119" s="42" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F119" s="42"/>
       <c r="G119" s="42"/>
